--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42983,6 +42983,41 @@
         <v>432000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>269000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43018,6 +43018,41 @@
         <v>269000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>742000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43053,6 +43053,41 @@
         <v>742000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>586500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43088,6 +43088,41 @@
         <v>586500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>205000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>205000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>282200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>282200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>591000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>591000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>204000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>204000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>290000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>290000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>507000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>507000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>685000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>685000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>284100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>284100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>116000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,76 @@
         <v>116000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>359000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3652700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,76 @@
         <v>3652700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2278600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1783000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         <v>1783000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>306200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>306200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>341300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>341300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2356900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>2356900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>981100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>825000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>825000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>780500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>780500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2400200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2179"/>
+  <dimension ref="A1:I2180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76653,6 +76653,41 @@
         <v>2400200</v>
       </c>
     </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>2872600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2180"/>
+  <dimension ref="A1:I2181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76688,6 +76688,41 @@
         <v>2872600</v>
       </c>
     </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>1298000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2181"/>
+  <dimension ref="A1:I2182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76723,6 +76723,41 @@
         <v>1298000</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>1069500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2182"/>
+  <dimension ref="A1:I2183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76758,6 +76758,41 @@
         <v>1069500</v>
       </c>
     </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>643400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2183"/>
+  <dimension ref="A1:I2184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76793,6 +76793,41 @@
         <v>643400</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>779000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2184"/>
+  <dimension ref="A1:I2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76828,6 +76828,41 @@
         <v>779000</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>1282600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2185"/>
+  <dimension ref="A1:I2186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76863,6 +76863,41 @@
         <v>1282600</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>835400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2186"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76898,6 +76898,41 @@
         <v>835400</v>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>854400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2187"/>
+  <dimension ref="A1:I2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76933,6 +76933,41 @@
         <v>854400</v>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>213500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2188"/>
+  <dimension ref="A1:I2189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76968,6 +76968,41 @@
         <v>213500</v>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>287000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2189"/>
+  <dimension ref="A1:I2190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77003,6 +77003,41 @@
         <v>287000</v>
       </c>
     </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>345000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2190"/>
+  <dimension ref="A1:I2191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77038,6 +77038,41 @@
         <v>345000</v>
       </c>
     </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>1162200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2191"/>
+  <dimension ref="A1:I2192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77073,6 +77073,41 @@
         <v>1162200</v>
       </c>
     </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>6000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2192"/>
+  <dimension ref="A1:I2193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77108,6 +77108,41 @@
         <v>6000000</v>
       </c>
     </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>352000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2193"/>
+  <dimension ref="A1:I2194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77143,6 +77143,41 @@
         <v>352000</v>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>155000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2194"/>
+  <dimension ref="A1:I2195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77178,6 +77178,41 @@
         <v>155000</v>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>467500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77213,6 +77213,41 @@
         <v>467500</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>602400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77248,6 +77248,41 @@
         <v>602400</v>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>620800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77283,6 +77283,41 @@
         <v>620800</v>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>509700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77318,6 +77318,41 @@
         <v>509700</v>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>276400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2199"/>
+  <dimension ref="A1:I2200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77353,6 +77353,41 @@
         <v>276400</v>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>685200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2200"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77388,6 +77388,41 @@
         <v>685200</v>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>414800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2201"/>
+  <dimension ref="A1:I2202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77423,6 +77423,41 @@
         <v>414800</v>
       </c>
     </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2202" t="n">
+        <v>943900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2202"/>
+  <dimension ref="A1:I2203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77458,6 +77458,41 @@
         <v>943900</v>
       </c>
     </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>24816300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2203"/>
+  <dimension ref="A1:I2204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77493,6 +77493,41 @@
         <v>24816300</v>
       </c>
     </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>8850500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2204"/>
+  <dimension ref="A1:I2206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77528,6 +77528,76 @@
         <v>8850500</v>
       </c>
     </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>2200600</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>4339300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2206"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77598,6 +77598,41 @@
         <v>4339300</v>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>1622100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77633,6 +77633,111 @@
         <v>1622100</v>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>1465000</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>2184000</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>10637300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2210"/>
+  <dimension ref="A1:I2211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77738,6 +77738,41 @@
         <v>10637300</v>
       </c>
     </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>2546400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2211"/>
+  <dimension ref="A1:I2212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77773,6 +77773,41 @@
         <v>2546400</v>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>1611500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0156.xlsx
+++ b/data/0156.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2212"/>
+  <dimension ref="A1:I2215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77808,6 +77808,111 @@
         <v>1611500</v>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>2915800</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>4052600</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>8901200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
